--- a/game_demo/net_protocol.xlsx
+++ b/game_demo/net_protocol.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,30 @@
   </si>
   <si>
     <t>服务器逻辑错误（一般是服务器进行协议解码、具体业务逻辑处理、协议编码时出异常，此时网络连接正常，用此条消息通知客户端服务器出现了异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经以上包装还不够，还需要在添加一个头，表示整个协议的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议体的长度(short型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000,00001001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+2+2+3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -567,6 +591,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1008,13 +1035,13 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="5:8" ht="14.25" thickTop="1"/>
-    <row r="18" spans="5:8" ht="14.25" thickBot="1">
+    <row r="17" spans="5:9" ht="14.25" thickTop="1"/>
+    <row r="18" spans="5:9" ht="14.25" thickBot="1">
       <c r="E18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="5:8" ht="14.25" thickTop="1">
+    <row r="19" spans="5:9" ht="14.25" thickTop="1">
       <c r="E19" s="25" t="s">
         <v>12</v>
       </c>
@@ -1028,7 +1055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="5:8" ht="14.25" thickBot="1">
+    <row r="20" spans="5:9" ht="14.25" thickBot="1">
       <c r="E20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1042,7 +1069,63 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="5:8" ht="14.25" thickTop="1"/>
+    <row r="21" spans="5:9" ht="14.25" thickTop="1">
+      <c r="E21" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" ht="14.25" thickBot="1"/>
+    <row r="24" spans="5:9" ht="14.25" thickTop="1">
+      <c r="E24" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" ht="14.25" thickBot="1">
+      <c r="E25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" ht="14.25" thickTop="1">
+      <c r="E26" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E3:F3"/>
@@ -1050,6 +1133,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1058,7 +1142,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A5:XFD5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1148,7 +1232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
